--- a/grid-change/lines.xlsx
+++ b/grid-change/lines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nordics-2045\grid-change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D125818-C321-4A47-A4F1-07C62174BFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62D130-2374-4C3A-B168-3294AA635164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="2910" windowWidth="12795" windowHeight="11535" xr2:uid="{FF92F84A-4765-4E6A-9B0A-D09A72360822}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="11265" windowHeight="15600" xr2:uid="{FF92F84A-4765-4E6A-9B0A-D09A72360822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>bus0</t>
   </si>
@@ -746,9 +746,6 @@
     <t>t22</t>
   </si>
   <si>
-    <t>t23</t>
-  </si>
-  <si>
     <t>t24</t>
   </si>
   <si>
@@ -816,9 +813,6 @@
   </si>
   <si>
     <t>t46</t>
-  </si>
-  <si>
-    <t>t47</t>
   </si>
   <si>
     <t>t48</t>
@@ -1199,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDE37EA-33EB-4BF3-B39D-C6301BD15E73}">
-  <dimension ref="A1:J277"/>
+  <dimension ref="A1:J275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="H223" sqref="H223"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="H274" sqref="H274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6199,10 +6193,10 @@
         <v>236</v>
       </c>
       <c r="B246">
-        <v>6841</v>
+        <v>6935</v>
       </c>
       <c r="C246">
-        <v>6842</v>
+        <v>6936</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -6218,19 +6212,19 @@
       <c r="A247" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B247">
-        <v>6935</v>
-      </c>
-      <c r="C247">
-        <v>6936</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
+      <c r="B247" s="2">
+        <v>6357</v>
+      </c>
+      <c r="C247" s="2">
+        <v>6358</v>
+      </c>
+      <c r="D247" s="2">
+        <v>1</v>
+      </c>
+      <c r="E247" s="2">
+        <v>1</v>
+      </c>
+      <c r="F247" s="2">
         <v>400</v>
       </c>
     </row>
@@ -6239,10 +6233,10 @@
         <v>238</v>
       </c>
       <c r="B248" s="2">
-        <v>6357</v>
+        <v>6362</v>
       </c>
       <c r="C248" s="2">
-        <v>6358</v>
+        <v>6363</v>
       </c>
       <c r="D248" s="2">
         <v>1</v>
@@ -6259,10 +6253,10 @@
         <v>239</v>
       </c>
       <c r="B249" s="2">
-        <v>6362</v>
+        <v>6689</v>
       </c>
       <c r="C249" s="2">
-        <v>6363</v>
+        <v>6690</v>
       </c>
       <c r="D249" s="2">
         <v>1</v>
@@ -6279,10 +6273,10 @@
         <v>240</v>
       </c>
       <c r="B250" s="2">
-        <v>6689</v>
+        <v>6372</v>
       </c>
       <c r="C250" s="2">
-        <v>6690</v>
+        <v>6373</v>
       </c>
       <c r="D250" s="2">
         <v>1</v>
@@ -6299,10 +6293,10 @@
         <v>241</v>
       </c>
       <c r="B251" s="2">
-        <v>6372</v>
+        <v>6729</v>
       </c>
       <c r="C251" s="2">
-        <v>6373</v>
+        <v>6730</v>
       </c>
       <c r="D251" s="2">
         <v>1</v>
@@ -6319,10 +6313,10 @@
         <v>242</v>
       </c>
       <c r="B252" s="2">
-        <v>6729</v>
+        <v>6726</v>
       </c>
       <c r="C252" s="2">
-        <v>6730</v>
+        <v>6727</v>
       </c>
       <c r="D252" s="2">
         <v>1</v>
@@ -6339,10 +6333,10 @@
         <v>243</v>
       </c>
       <c r="B253" s="2">
-        <v>6726</v>
+        <v>6741</v>
       </c>
       <c r="C253" s="2">
-        <v>6727</v>
+        <v>6742</v>
       </c>
       <c r="D253" s="2">
         <v>1</v>
@@ -6359,10 +6353,10 @@
         <v>244</v>
       </c>
       <c r="B254" s="2">
-        <v>6741</v>
+        <v>6739</v>
       </c>
       <c r="C254" s="2">
-        <v>6742</v>
+        <v>6740</v>
       </c>
       <c r="D254" s="2">
         <v>1</v>
@@ -6379,10 +6373,10 @@
         <v>245</v>
       </c>
       <c r="B255" s="2">
-        <v>6739</v>
+        <v>6735</v>
       </c>
       <c r="C255" s="2">
-        <v>6740</v>
+        <v>6736</v>
       </c>
       <c r="D255" s="2">
         <v>1</v>
@@ -6399,10 +6393,10 @@
         <v>246</v>
       </c>
       <c r="B256" s="2">
-        <v>6735</v>
+        <v>6733</v>
       </c>
       <c r="C256" s="2">
-        <v>6736</v>
+        <v>6734</v>
       </c>
       <c r="D256" s="2">
         <v>1</v>
@@ -6419,10 +6413,10 @@
         <v>247</v>
       </c>
       <c r="B257" s="2">
-        <v>6733</v>
+        <v>6697</v>
       </c>
       <c r="C257" s="2">
-        <v>6734</v>
+        <v>6698</v>
       </c>
       <c r="D257" s="2">
         <v>1</v>
@@ -6439,10 +6433,10 @@
         <v>248</v>
       </c>
       <c r="B258" s="2">
-        <v>6697</v>
+        <v>6681</v>
       </c>
       <c r="C258" s="2">
-        <v>6698</v>
+        <v>6682</v>
       </c>
       <c r="D258" s="2">
         <v>1</v>
@@ -6459,10 +6453,10 @@
         <v>249</v>
       </c>
       <c r="B259" s="2">
-        <v>6681</v>
+        <v>6692</v>
       </c>
       <c r="C259" s="2">
-        <v>6682</v>
+        <v>6693</v>
       </c>
       <c r="D259" s="2">
         <v>1</v>
@@ -6479,10 +6473,10 @@
         <v>250</v>
       </c>
       <c r="B260" s="2">
-        <v>6692</v>
+        <v>6672</v>
       </c>
       <c r="C260" s="2">
-        <v>6693</v>
+        <v>6673</v>
       </c>
       <c r="D260" s="2">
         <v>1</v>
@@ -6499,10 +6493,10 @@
         <v>251</v>
       </c>
       <c r="B261" s="2">
-        <v>6672</v>
+        <v>6662</v>
       </c>
       <c r="C261" s="2">
-        <v>6673</v>
+        <v>6663</v>
       </c>
       <c r="D261" s="2">
         <v>1</v>
@@ -6519,10 +6513,10 @@
         <v>252</v>
       </c>
       <c r="B262" s="2">
-        <v>6662</v>
+        <v>6655</v>
       </c>
       <c r="C262" s="2">
-        <v>6663</v>
+        <v>6656</v>
       </c>
       <c r="D262" s="2">
         <v>1</v>
@@ -6539,10 +6533,10 @@
         <v>253</v>
       </c>
       <c r="B263" s="2">
-        <v>6655</v>
+        <v>6644</v>
       </c>
       <c r="C263" s="2">
-        <v>6656</v>
+        <v>6645</v>
       </c>
       <c r="D263" s="2">
         <v>1</v>
@@ -6559,10 +6553,10 @@
         <v>254</v>
       </c>
       <c r="B264" s="2">
-        <v>6644</v>
+        <v>6660</v>
       </c>
       <c r="C264" s="2">
-        <v>6645</v>
+        <v>6661</v>
       </c>
       <c r="D264" s="2">
         <v>1</v>
@@ -6579,10 +6573,10 @@
         <v>255</v>
       </c>
       <c r="B265" s="2">
-        <v>6660</v>
+        <v>6865</v>
       </c>
       <c r="C265" s="2">
-        <v>6661</v>
+        <v>6866</v>
       </c>
       <c r="D265" s="2">
         <v>1</v>
@@ -6599,10 +6593,10 @@
         <v>256</v>
       </c>
       <c r="B266" s="2">
-        <v>6865</v>
+        <v>6868</v>
       </c>
       <c r="C266" s="2">
-        <v>6866</v>
+        <v>6869</v>
       </c>
       <c r="D266" s="2">
         <v>1</v>
@@ -6619,10 +6613,10 @@
         <v>257</v>
       </c>
       <c r="B267" s="2">
-        <v>6868</v>
+        <v>6870</v>
       </c>
       <c r="C267" s="2">
-        <v>6869</v>
+        <v>6871</v>
       </c>
       <c r="D267" s="2">
         <v>1</v>
@@ -6639,10 +6633,10 @@
         <v>258</v>
       </c>
       <c r="B268" s="2">
-        <v>6870</v>
+        <v>6813</v>
       </c>
       <c r="C268" s="2">
-        <v>6871</v>
+        <v>6814</v>
       </c>
       <c r="D268" s="2">
         <v>1</v>
@@ -6659,10 +6653,10 @@
         <v>259</v>
       </c>
       <c r="B269" s="2">
-        <v>6813</v>
+        <v>6935</v>
       </c>
       <c r="C269" s="2">
-        <v>6814</v>
+        <v>6936</v>
       </c>
       <c r="D269" s="2">
         <v>1</v>
@@ -6675,43 +6669,43 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
+      <c r="A270" t="s">
         <v>260</v>
       </c>
-      <c r="B270" s="2">
-        <v>6841</v>
-      </c>
-      <c r="C270" s="2">
-        <v>6842</v>
-      </c>
-      <c r="D270" s="2">
-        <v>1</v>
-      </c>
-      <c r="E270" s="2">
-        <v>1</v>
-      </c>
-      <c r="F270" s="2">
+      <c r="B270">
+        <v>6324</v>
+      </c>
+      <c r="C270">
+        <v>6335</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>57</v>
+      </c>
+      <c r="F270">
         <v>400</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="A271" t="s">
         <v>261</v>
       </c>
-      <c r="B271" s="2">
-        <v>6935</v>
-      </c>
-      <c r="C271" s="2">
-        <v>6936</v>
-      </c>
-      <c r="D271" s="2">
-        <v>1</v>
-      </c>
-      <c r="E271" s="2">
-        <v>1</v>
-      </c>
-      <c r="F271" s="2">
-        <v>400</v>
+      <c r="B271">
+        <v>6633</v>
+      </c>
+      <c r="C271">
+        <v>6580</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>50</v>
+      </c>
+      <c r="F271">
+        <v>220</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -6719,16 +6713,16 @@
         <v>262</v>
       </c>
       <c r="B272">
-        <v>6324</v>
+        <v>5642</v>
       </c>
       <c r="C272">
-        <v>6335</v>
+        <v>5646</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F272">
         <v>400</v>
@@ -6739,19 +6733,19 @@
         <v>263</v>
       </c>
       <c r="B273">
-        <v>6633</v>
+        <v>5660</v>
       </c>
       <c r="C273">
-        <v>6580</v>
+        <v>9100</v>
       </c>
       <c r="D273">
         <v>1</v>
       </c>
       <c r="E273">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F273">
-        <v>220</v>
+        <v>400</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -6759,16 +6753,16 @@
         <v>264</v>
       </c>
       <c r="B274">
+        <v>9100</v>
+      </c>
+      <c r="C274">
         <v>5642</v>
       </c>
-      <c r="C274">
-        <v>5646</v>
-      </c>
       <c r="D274">
         <v>1</v>
       </c>
       <c r="E274">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F274">
         <v>400</v>
@@ -6779,58 +6773,18 @@
         <v>265</v>
       </c>
       <c r="B275">
-        <v>5660</v>
+        <v>9102</v>
       </c>
       <c r="C275">
-        <v>9100</v>
+        <v>6920</v>
       </c>
       <c r="D275">
         <v>1</v>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F275">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>266</v>
-      </c>
-      <c r="B276">
-        <v>9100</v>
-      </c>
-      <c r="C276">
-        <v>5642</v>
-      </c>
-      <c r="D276">
-        <v>1</v>
-      </c>
-      <c r="E276">
-        <v>15</v>
-      </c>
-      <c r="F276">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>267</v>
-      </c>
-      <c r="B277">
-        <v>9102</v>
-      </c>
-      <c r="C277">
-        <v>6920</v>
-      </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-      <c r="E277">
-        <v>57</v>
-      </c>
-      <c r="F277">
         <v>400</v>
       </c>
     </row>
@@ -6842,6 +6796,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db2da579-6238-4230-a668-c475825d65c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EE7390DBBCC5E47940B99B4F6A76B3C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="afd03528c0929f75bbe2a73e27d6997f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0" xmlns:ns3="db2da579-6238-4230-a668-c475825d65c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a152944ee5428ad2892f61bce71dae57" ns2:_="" ns3:_="">
     <xsd:import namespace="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
@@ -7058,17 +7023,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="db2da579-6238-4230-a668-c475825d65c8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7079,6 +7033,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D0FDBF-208A-4846-8593-6FBB65D046AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db2da579-6238-4230-a668-c475825d65c8"/>
+    <ds:schemaRef ds:uri="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D29D768-8055-4AF5-96A1-BF23C078876B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7097,17 +7062,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D0FDBF-208A-4846-8593-6FBB65D046AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="db2da579-6238-4230-a668-c475825d65c8"/>
-    <ds:schemaRef ds:uri="51f1c2e6-525e-4e5a-b124-f0d5d427e6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3357DCF9-F76B-44E6-AD4D-0EC2C98BB386}">
   <ds:schemaRefs>
